--- a/Data/Exports/4193986_1-5.xlsx
+++ b/Data/Exports/4193986_1-5.xlsx
@@ -64,13 +64,13 @@
     <x:t>09</x:t>
   </x:si>
   <x:si>
-    <x:t>APARATOS E INSTRUMENTOS CIENTÍFICOS, DE INVESTIGACIÓN, DE NAVEGACIÓN, GEODÉSICOS, FOTOGRÁFICOS, CINEMATOGRÁFICOS, AUDIOVISUALES, ÓPTICOS, DE PESAJE, DE MEDICIÓN, DE SEÑALIZACIÓN, DE DETECCIÓN, DE PRUEBAS, DE INSPECCIÓN, DE SALVAMENTO Y DE ENSEÑANZA; APARATOS E INSTRUMENTOS DE CONDUCCIÓN, DISTRIBUCIÓN, TRANSFORMACIÓN, ACUMULACIÓN, REGULACIÓN O CONTROL DE LA DISTRIBUCIÓN O DEL CONSUMO DE ELECTRICIDAD; APARATOS E INSTRUMENTOS DE GRABACIÓN, TRANSMISIÓN, REPRODUCCIÓN O TRATAMIENTO DE SONIDOS, IMÁGENES O DATOS; SOPORTES GRABADOS O DESCARGABLES, SOFTWARE, SOPORTES DE REGISTRO Y ALMACENAMIENTO DIGITALES O ANÁLOGOS VÍRGENES; MECANISMOS PARA APARATOS QUE FUNCIONAN CON MONEDAS; CAJAS REGISTRADORAS, DISPOSITIVOS DE CÁLCULO; ORDENADORES Y PERIFÉRICOS DE ORDENADOR; TRAJES DE BUCEO, MÁSCARAS DE BUCEO, TAPONES AUDITIVOS PARA BUCEO, PINZAS NASALES PARA SUBMARINISTAS Y NADADORES, GUANTES DE BUCEO, APARATOS DE RESPIRACIÓN PARA LA NATACIÓN SUBACUÁTICA; EXTINTORES; ARCHIVOS DIGITALES DESCARGABLES AUTENTICADOS POR TÓKENS NO FUNGIBLES [NFT]; ARTÍCULOS VIRTUALES DESCARGABLES, EN CONCRETO, PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, TOCADOS, BOLSOS, CARTERAS, MOCHILAS, MALETAS, PARAGUAS, RELOJES, JOYAS, BISUTERÍA, GAFAS Y GAFAS DE SOL, ESTUCHES Y FUNDAS PARA TELÉFONOS MÓVILES Y TABLETAS, PAPELERÍA, PUBLICACIONES, MUEBLES, VAJILLAS, CRISTALERÍAS, JUGUETES, PERFUMERÍA, ARTÍCULOS DE TOCADOR Y COSMÉTICOS, ARTÍCULOS TEXTILES, ACCESORIOS PARA MASCOTAS, ROPA DE CAMA Y DE MESA, JARRONES, MARCOS DE FOTOS, ESPEJOS, ALFOMBRAS Y MUEBLES, TODOS LOS PRODUCTOS ANTES MENCIONADOS EXHIBIDOS O UTILIZADOS EN LÍNEA Y / O EN ENTORNOS VIRTUALES; SOFTWARE DESCARGABLE PARA LA CREACIÓN, PRODUCCIÓN Y MODIFICACIÓN DE PERSONAJES DIGITALES ANIMADOS Y NO ANIMADOS, AVATARES, SUPERPOSICIONES DIGITALES Y MÁSCARAS, TODOS ELLOS PARA SU USO EN ENTORNOS VIRTUALES EN LÍNEA Y ENTORNOS VIRTUALES DE REALIDAD AUMENTADA, ESTANDO O NO AUTENTICADOS POR TÓKENS NO FUNGIBLES (NFT); SOFTWARE DESCARGABLE; ARCHIVOS DIGITALES DESCARGABLES QUE CONTENGAN ARTE, FOTOGRAFÍAS, IMÁGENES, ANIMACIÓN Y VIDEOS PUBLICACIONES ELECTRÓNICAS DESCARGABLES; SOFTWARE DE REALIDAD VIRTUAL Y AUMENTADA; SOFTWARE DESCARGABLE PARA CREAR, PRODUCIR, GESTIONAR, MODIFICAR, ALMACENAR, ENVIAR, RECIBIR, INTERCAMBIAR, VALIDAR, VENDER, COMPARTIR Y ACCEDER A ACTIVOS DIGITALES, COLECCIONABLES DIGITALES, TÓKENS DIGITALES Y TÓKENS NO FUNGIBLES (NFT); APLICACIONES INFORMÁTICAS DESCARGABLES; ARCHIVOS DE IMAGEN DESCARGABLES; ARCHIVOS DIGITALES DESCARGABLES QUE CONTENGAN CONTENIDO AUDIOVISUAL, VÍDEOS, PELÍCULAS, ARCHIVOS MULTIMEDIA Y ANIMACIÓN, PARA SER UTILIZADOS E INTERCAMBIADOS A TRAVÉS DE REDES INFORMÁTICAS GLOBALES Y A TRAVÉS DE REDES INALÁMBRICAS; CASCOS DE REALIDAD VIRTUAL; GAFAS DE REALIDAD VIRTUAL; GUANTES DE REALIDAD VIRTUAL; CASCOS AURICULARES DE REALIDAD VIRTUAL; RELOJES INTELIGENTES; SOFTWARE DE JUEGOS DESCARGABLES; SOFTWARE DE JUEGOS DE ORDENADOR DE REALIDAD AUMENTADA; SOFTWARE DESCARGABLE PARA PARTICIPAR EN LA CONEXIÓN EN REDES SOCIALES E INTERACTUAR CON COMUNIDADES EN LÍNEA; SOFTWARE DESCARGABLE PARA LA EMISIÓN EN TIEMPO REAL DE CONTENIDO MULTIMEDIA DE ENTRETENIMIENTO Y PARA EL ACCESO A ESE CONTENIDO; SOFTWARE DESCARGABLE PARA FACILITAR EL ACCESO A UN ENTORNO VIRTUAL EN LÍNEA; SOFTWARE DESCARGABLE PARA EL USO DE CRIPTOMONEDAS, MONEDAS DIGITALES Y TÓKENS EN ENTORNOS VIRTUALES; SOFTWARE PARA GENERAR IMÁGENES VIRTUALES; SOFTWARE DESCARGABLE PARA LA GESTIÓN DE TRANSACCIONES MEDIANTE TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN].</x:t>
+    <x:t>APARATOS E INSTRUMENTOS CIENTÍFICOS, DE INVESTIGACIÓN, DE NAVEGACIÓN, GEODÉSICOS, FOTOGRÁFICOS, CINEMATOGRÁFICOS, AUDIOVISUALES, ÓPTICOS, DE PESAJE, DE MEDICIÓN, DE SEÑALIZACIÓN, DE DETECCIÓN, DE PRUEBAS, DE INSPECCIÓN, DE SALVAMENTO Y DE ENSEÑANZA; APARATOS E INSTRUMENTOS DE CONDUCCIÓN, DISTRIBUCIÓN, TRANSFORMACIÓN, ACUMULACIÓN, REGULACIÓN O CONTROL DE LA DISTRIBUCIÓN O DEL CONSUMO DE ELECTRICIDAD; APARATOS E INSTRUMENTOS DE GRABACIÓN, TRANSMISIÓN, REPRODUCCIÓN O TRATAMIENTO DE SONIDOS, IMÁGENES O DATOS; SOPORTES GRABADOS O DESCARGABLES, SOFTWARE, SOPORTES DE REGISTRO Y ALMACENAMIENTO DIGITALES O ANÁLOGOS VÍRGENES; MECANISMOS PARA APARATOS QUE FUNCIONAN CON MONEDAS; CAJAS REGISTRADORAS, DISPOSITIVOS DE CÁLCULO; ORDENADORES Y PERIFÉRICOS DE ORDENADOR; TRAJES DE BUCEO, MÁSCARAS DE BUCEO, TAPONES AUDITIVOS PARA BUCEO, PINZAS NASALES PARA SUBMARINISTAS Y NADADORES, GUANTES DE BUCEO, APARATOS DE RESPIRACIÓN PARA LA NATACIÓN SUBACUÁTICA; EXTINTORES; ARCHIVOS DIGITALES DESCARGABLES AUTENTICADOS POR TÓKENS NO FUNGIBLES [NFT]; ARTÍCULOS VIRTUALES DESCARGABLES, EN CONCRETO, PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, TOCADOS, BOLSOS, CARTERAS, MOCHILAS, MALETAS, PARAGUAS, RELOJES, JOYAS, BISUTERÍA, GAFAS Y GAFAS DE SOL, ESTUCHES Y FUNDAS PARA TELÉFONOS MÓVILES Y TABLETAS, PAPELERÍA, PUBLICACIONES, MUEBLES, VAJILLAS, CRISTALERÍAS, JUGUETES, PERFUMERÍA, ARTÍCULOS DE TOCADOR Y COSMÉTICOS, ARTÍCULOS TEXTILES, ACCESORIOS PARA MASCOTAS, ROPA DE CAMA Y DE MESA, JARRONES, MARCOS DE FOTOS, ESPEJOS, ALFOMBRAS Y MUEBLES, TODOS LOS PRODUCTOS ANTES MENCIONADOS EXHIBIDOS O UTILIZADOS EN LÍNEA Y O EN ENTORNOS / VIRTUALES; SOFTWARE DESCARGABLE PARA LA CREACIÓN, PRODUCCIÓN Y MODIFICACIÓN DE PERSONAJES DIGITALES ANIMADOS Y NO ANIMADOS, AVATARES, SUPERPOSICIONES DIGITALES Y MÁSCARAS, TODOS ELLOS PARA SU USO EN ENTORNOS VIRTUALES EN LÍNEA Y ENTORNOS VIRTUALES DE REALIDAD AUMENTADA, ESTANDO O NO AUTENTICADOS POR TÓKENS NO FUNGIBLES (NFT); SOFTWARE DESCARGABLE; ARCHIVOS DIGITALES DESCARGABLES QUE CONTENGAN ARTE, FOTOGRAFÍAS, IMÁGENES, ANIMACIÓN Y VIDEOS PUBLICACIONES ELECTRÓNICAS DESCARGABLES; SOFTWARE DE REALIDAD VIRTUAL Y AUMENTADA; SOFTWARE DESCARGABLE PARA CREAR, PRODUCIR, GESTIONAR, MODIFICAR, ALMACENAR, ENVIAR, RECIBIR, INTERCAMBIAR, VALIDAR, VENDER, COMPARTIR Y ACCEDER A ACTIVOS DIGITALES, COLECCIONABLES DIGITALES, TÓKENS DIGITALES Y TÓKENS NO FUNGIBLES (NFT); APLICACIONES INFORMÁTICAS DESCARGABLES; ARCHIVOS DE IMAGEN DESCARGABLES; ARCHIVOS DIGITALES DESCARGABLES QUE CONTENGAN CONTENIDO AUDIOVISUAL, VÍDEOS, PELÍCULAS, ARCHIVOS MULTIMEDIA Y ANIMACIÓN, PARA SER UTILIZADOS E INTERCAMBIADOS A TRAVÉS DE REDES INFORMÁTICAS GLOBALES Y A TRAVÉS DE REDES INALÁMBRICAS; CASCOS DE REALIDAD VIRTUAL; GAFAS DE REALIDAD VIRTUAL; GUANTES DE REALIDAD VIRTUAL; CASCOS AURICULARES DE REALIDAD VIRTUAL; RELOJES INTELIGENTES; SOFTWARE DE JUEGOS DESCARGABLES; SOFTWARE DE JUEGOS DE ORDENADOR DE REALIDAD AUMENTADA; SOFTWARE DESCARGABLE PARA PARTICIPAR EN LA CONEXIÓN EN REDES SOCIALES E INTERACTUAR CON COMUNIDADES EN LÍNEA; SOFTWARE DESCARGABLE PARA LA EMISIÓN EN TIEMPO REAL DE CONTENIDO MULTIMEDIA DE ENTRETENIMIENTO Y PARA EL ACCESO A ESE CONTENIDO; SOFTWARE DESCARGABLE PARA FACILITAR EL ACCESO A UN ENTORNO VIRTUAL EN LÍNEA; SOFTWARE DESCARGABLE PARA EL USO DE CRIPTOMONEDAS, MONEDAS DIGITALES Y TÓKENS EN ENTORNOS VIRTUALES; SOFTWARE PARA GENERAR IMÁGENES VIRTUALES; SOFTWARE DESCARGABLE PARA LA GESTIÓN DE TRANSACCIONES MEDIANTE TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN].</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>PUBLICIDAD; GESTIÓN, ORGANIZACIÓN Y ADMINISTRACIÓN DE NEGOCIOS COMERCIALES; TRABAJOS DE OFICINA; SERVICIOS DE VENTA AL POR MENOR Y AL POR MAYOR POR CUALQUIER MEDIO DE PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, TOCADOS, BOLSOS, CARTERAS, MOCHILAS, MALETAS, BILLETERAS, PARAGUAS, RELOJES, JOYAS, BISUTERÍA, GAFAS Y GAFAS DE SOL, ESTUCHES Y FUNDAS PARA TELÉFONOS MÓVILES Y TABLETAS, MUEBLES, VAJILLAS, CRISTALERÍAS, JUGUETES, PERFUMERÍA, ARTÍCULOS DE TOCADOR Y COSMÉTICOS, ARTÍCULOS TEXTILES, ACCESORIOS PARA MASCOTAS, ROPA DE CAMA</x:t>
+    <x:t>PUBLICIDAD; GESTIÓN, ORGANIZACIÓN Y ADMINISTRACIÓN DE NEGOCIOS COMERCIALES; TRABAJOS DE OFICINA; SERVICIOS DE VENTA AL POR MENOR Y AL POR MAYOR POR CUALQUIER MEDIO DE PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, TOCADOS, BOLSOS, CARTERAS, MOCHILAS, MALETAS, BILLETERAS, PARAGUAS, RELOJES, JOYAS, BISUTERÍA, GAFAS Y GAFAS DE SOL, ESTUCHES Y FUNDAS PARA TELÉFONOS MÓVILES Y TABLETAS, MUEBLES, VAJILLAS, CRISTALERÍAS, JUGUETES, PERFUMERÍA, ARTÍCULOS DE TOCADOR Y COSMÉTICOS, ARTÍCULOS TEXTILES, ACCESORIOS PARA MASCOTAS, ROPA DE CAMA Y</x:t>
   </x:si>
   <x:si>
     <x:t>MESA, JARRONES, MARCOS DE FOTOS, ESPEJOS, ALFOMBRAS Y MUEBLES, MATERIAL IMPRESO; SERVICIOS DE VENTA AL POR MENOR EN LÍNEA DE PRODUCTOS VIRTUALES, EN CONCRETO, PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, TOCADOS, BOLSOS, CARTERAS, MOCHILAS, MALETAS, BILLETERAS, PARAGUAS, PERFUMERÍA, ARTÍCULOS DE TOCADOR Y COSMÉTICOS, RELOJES, JOYAS, BISUTERÍA, GAFAS Y GAFAS DE SOL, ESTUCHES Y FUNDAS PARA TELÉFONOS MÓVILES Y TABLETAS, MATERIAL IMPRESO, PAPELERÍA, MUEBLES, VAJILLAS, CRISTALERÍAS, JUGUETES, ARTÍCULOS TEXTILES, ACCESORIOS PARA MASCOTAS, ROPA DE CAMA Y DE MESA, JARRONES, MARCOS DE FOTOS, ESPEJOS, ALFOMBRAS Y MUEBLES, AUTENTICADOS O NO POR TÓKENS NO FUNGIBLES (NFT); SERVICIOS DE VENTA AL POR MENOR EN LÍNEA DE DISEÑOS Y PERSONAJES DIGITALES ANIMADOS Y NO ANIMADOS, AVATARES, SUPERPOSICIONES DIGITALES Y SKINS; PRESENTACIÓN DE PRODUCTOS EN MEDIOS DE COMUNICACIÓN, CON FINES MINORISTAS; SUMINISTRO DE ESPACIOS DE VENTA EN LÍNEA PARA LA VENTA, COMPRA E INTERCAMBIO DE PRODUCTOS Y SERVICIOS, AUTENTICADOS O NO POR TÓKENS NO FUNGIBLES (NFT); PROMOCIÓN DE PRODUCTOS Y SERVICIOS DE TERCEROS MEDIANTE PROGRAMAS DE FIDELIZACIÓN; ORGANIZACIÓN DE DESFILES DE MODA VIRTUALES CON FINES PROMOCIONALES; ORGANIZACIÓN Y REALIZACIÓN DE EVENTOS CON FINES COMERCIALES, PROMOCIONALES O PUBLICITARIOS EN RELACIÓN CON BIENES, LUGARES O PERSONAJES VIRTUALES, COLECCIONABLES DIGITALES Y TÓKENS NO FUNGIBLES.</x:t>
@@ -94,7 +94,7 @@
     <x:t>OLECCIONABLES, DE TÓKENS NO FUNGIBLES Y OTROS TÓKENS DE APLICACIÓN, Y PARA LA GESTIÓN DE TRANSACCIONES DIGITALES; DESARROLLO Y SUMINISTRO DE PROGRAMAS INFORMÁTICOS NO DESCARGABLES EN LÍNEA QUE CONTIENEN AVATARES Y REPRESENTACIONES DIGITALES DE SERES HUMANOS EN UN ENTORNO VIRTUAL AUTENTICADOS POR TÓKENS NO FUNGIBLES (NFT); ALMACENAMIENTO ELECTRÓNICO DE DATOS, DE IMÁGENES DIGITALES, DE ARCHIVOS MULTIMEDIA, DE FOTOGRAFÍAS Y VÍDEOS DIGITALES; SERVICIOS DE DISEÑO DE MODA EN ENTORNOS VIRTUALES; SUMINISTRO DE PROGRAMAS INFORMÁTICOS NO DESCARGABLES EN LÍNEA EN EL ÁMBITO DEL ARTE DIGITAL, LAS IMÁGENES DIGITALES, EL TEXTO DIGITAL Y LOS DISEÑOS GRÁFICOS DIGITALES; PLANIFICACIÓN DE TIENDAS [DISEÑO] QUE OFRECEN COLECCIONABLES DIGITALES Y ARCHIVOS DIGITALES AUTENTICADOS POR TÓKENS NO FUNGIBLES BASADOS EN CADENA DE BLOQUES; DESARROLLO Y SUMINISTRO DE PROGRAMAS INFORMÁTICOS NO DESCARGABLES EN LÍNEA PARA LA CREACIÓN, MODIFICACIÓN, ACCESO, OFRECIMIENTO, COMERCIALIZACIÓN E INTERCAMBIO DE PRODUCTOS VIRTUALES, EN CONCRETO, PRENDAS DE VESTIR, CALZADO, SOMBRERERÍA, EQUIPAJE, BOLSOS, BOLSAS DE DEPORTE, MOCHILAS, CARTERAS, PARAGUAS, EQUIPOS DEPORTIVOS, GAFAS, GAFAS DE SOL, AURICULARES, JOYAS, BISUTERÍA, RELOJES, PERFUMERÍA, COSMÉTICOS, MATERIAL IMPRESO, PAPELERÍA, ARTÍCULOS TEXTILES, ARTÍCULOS DE CUERO O IMITACIONES DE CUERO, ACCESORIOS DE MODA, ARTÍCULOS DE ARTE Y JUGUETES, TODO PARA SU USO EN LÍNEA Y EN MUNDOS VIRTUALES EN LÍNEA; ALOJAMIENTO DE SERVICIOS DE ENTORNOS VIRTUALES PARA TERCEROS; DISEÑO</x:t>
   </x:si>
   <x:si>
-    <x:t>SERVICIOS CIENTÍFICOS Y TECNOLÓGICOS, ASÍ COMO SERVICIOS DE INVESTIGACIÓN Y DISEÑO CONEXOS; SERVICIOS DE ANÁLISIS INDUSTRIAL, INVESTIGACIÓN INDUSTRIAL Y DISEÑO INDUSTRIAL; CONTROL DE CALIDAD Y SERVICIOS DE AUTENTICACIÓN; AUTENTICACIÓN, EMISIÓN Y VALIDACIÓN DE CERTIFICADOS DIGITALES; DISEÑO Y DESARROLLO DE HARDWARE Y SOFTWARE; SERVICIOS DE AUTENTICACIÓN DE USUARIOS CON TECNOLOGÍA DE SOFTWARE BASADA EN CADENAS DE BLOQUES PARA TRANSACCIONES CON CRIPTOMONEDAS; SUMINISTRO DE SOFTWARE PARA SU USO EN RELACIÓN CON LA PRESENTACIÓN Y TRANSFERENCIA DE PRODUCTOS DIGITALES Y ACTIVOS VIRTUALES REPRESENTADOS TAMBIÉN POR ARCHIVOS DIGITALES DESCARGABLES AUTENTICADOS POR TÓKENS NO FUNGIBLES (NFT); SOFTWARE COMO SERVICIO [SAAS]; CERTIFICACIÓN DE DATOS A TRAVÉS DE LA TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN]; SUMINISTRO DE SOFTWARE NO DESCARGABLE PARA LA GESTIÓN DE TRANSACCIONES UTILIZANDO LA TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN]; CADENA DE BLOQUES COMO SERVICIO [BAAS]; DESARROLLO DE SOFTWARE DE ORDENADOR NO DESCARGABLE PARA LA CREACIÓN, PRODUCCIÓN Y MODIFICACIÓN DE DISEÑOS Y PERSONAJES DIGITALES ANIMADOS Y NO ANIMADOS Y AVATARES; DESARROLLO DE SOFTWARE PARA EL ACCESO A ENTORNOS EN LÍNEA, ENTORNOS VIRTUALES EN LÍNEA, ENTORNOS VIRTUALES DE REALIDAD EXTENDIDA, Y PARA SU USO EN ELLOS; DESARROLLO Y SUMINISTRO DE SOFTWARE NO DESCARGABLE EN LÍNEA PARA SU USO EN EL COMERCIO ELECTRÓNICO, ALMACENAMIENTO, ENVÍO,</x:t>
+    <x:t>SERVICIOS CIENTÍFICOS Y TECNOLÓGICOS, ASÍ COMO SERVICIOS DE INVESTIGACIÓN Y DISEÑO CONEXOS; SERVICIOS DE ANÁLISIS INDUSTRIAL, INVESTIGACIÓN INDUSTRIAL Y DISEÑO INDUSTRIAL; CONTROL DE CALIDAD Y SERVICIOS DE AUTENTICACIÓN; AUTENTICACIÓN, EMISIÓN Y VALIDACIÓN DE CERTIFICADOS DIGITALES; DISEÑO Y DESARROLLO DE HARDWARE Y SOFTWARE; SERVICIOS DE AUTENTICACIÓN DE USUARIOS CON TECNOLOGÍA DE SOFTWARE BASADA EN CADENAS DE BLOQUES PARA TRANSACCIONES CON CRIPTOMONEDAS; SUMINISTRO DE SOFTWARE PARA SU USO EN RELACIÓN CON LA PRESENTACIÓN Y TRANSFERENCIA DE PRODUCTOS DIGITALES Y ACTIVOS VIRTUALES REPRESENTADOS TAMBIÉN POR ARCHIVOS DIGITALES DESCARGABLES AUTENTICADOS POR TÓKENS NO FUNGIBLES (NFT); SOFTWARE COMO SERVICIO [SAAS]; CERTIFICACIÓN DE DATOS A TRAVÉS DE LA TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN]; SUMINISTRO DE SOFTWARE NO DESCARGABLE PARA LA GESTIÓN DE TRANSACCIONES UTILIZANDO TECNOLOGÍA DE CADENAS DE BLOQUES [BLOCKCHAIN]; CADENA DE BLOQUES COMO SERVICIO [BAAS]; DESARROLLO DE SOFTWARE DE ORDENADOR NO DESCARGABLE PARA LA CREACIÓN, PRODUCCIÓN Y MODIFICACIÓN DE DISEÑOS Y PERSONAJES DIGITALES ANIMADOS Y NO ANIMADOS Y AVATARES; DESARROLLO DE SOFTWARE PARA EL ACCESO A ENTORNOS EN LÍNEA, ENTORNOS VIRTUALES EN LÍNEA, ENTORNOS VIRTUALES DE REALIDAD EXTENDIDA, Y PARA SU USO EN ELLOS; DESARROLLO Y SUMINISTRO DE SOFTWARE NO DESCARGABLE EN LÍNEA PARA SU USO EN EL COMERCIO ELECTRÓNICO, ALMACENAMIENTO, ENVÍO,</x:t>
   </x:si>
   <x:si>
     <x:t>PRODUCCIÓN DE TRABAJOS ARTÍSTICOS, MAQUETAS 3D, E IMÁGENES GENERADAS POR ORDENADOR PARA SU USO EN ENTORNOS VIRTUALES, DE REALIDAD AUMENTADA Y DE REALIDAD MIXTA; SERVICIOS DE COMPUTACIÓN EN LA NUBE; SUMINISTRO DE PROGRAMAS INFORMÁTICOS O PLATAFORMAS NO DESCARGABLES QUE PERMITAN A LOS USUARIOS ACCEDER, COMPRAR, ALQUILAR, COMPARTIR, INTERCAMBIAR, CREAR, VER, GESTIONAR Y UTILIZAR PRODUCTOS, LUGARES O PERSONAJES VIRTUALES, OBJETOS COLECCIONABLES DIGITALES Y TÓKENS NO FUNGIBLES.</x:t>
